--- a/data/StageEdit.xlsx
+++ b/data/StageEdit.xlsx
@@ -341,19 +341,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN60"/>
+  <dimension ref="A1:BK60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="47" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="40" width="4.19921875" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="63" width="4.19921875" style="1" customWidth="1"/>
+    <col min="64" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1">
         <v>-1</v>
       </c>
@@ -394,10 +394,10 @@
         <v>-1</v>
       </c>
       <c r="N1" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O1" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P1" s="1">
         <v>-1</v>
@@ -430,10 +430,10 @@
         <v>-1</v>
       </c>
       <c r="Z1" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA1" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB1" s="1">
         <v>-1</v>
@@ -474,8 +474,77 @@
       <c r="AN1" s="1">
         <v>-1</v>
       </c>
+      <c r="AO1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>-1</v>
       </c>
@@ -516,10 +585,10 @@
         <v>-1</v>
       </c>
       <c r="N2" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P2" s="1">
         <v>-1</v>
@@ -552,10 +621,10 @@
         <v>-1</v>
       </c>
       <c r="Z2" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA2" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB2" s="1">
         <v>-1</v>
@@ -596,8 +665,77 @@
       <c r="AN2" s="1">
         <v>-1</v>
       </c>
+      <c r="AO2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>-1</v>
       </c>
@@ -713,13 +851,82 @@
         <v>0</v>
       </c>
       <c r="AM3" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BK3" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>-1</v>
       </c>
@@ -835,13 +1042,82 @@
         <v>0</v>
       </c>
       <c r="AM4" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BK4" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>-1</v>
       </c>
@@ -957,13 +1233,82 @@
         <v>0</v>
       </c>
       <c r="AM5" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BK5" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>-1</v>
       </c>
@@ -1079,13 +1424,82 @@
         <v>0</v>
       </c>
       <c r="AM6" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BK6" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>-1</v>
       </c>
@@ -1201,13 +1615,82 @@
         <v>0</v>
       </c>
       <c r="AM7" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BK7" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>-1</v>
       </c>
@@ -1323,13 +1806,82 @@
         <v>0</v>
       </c>
       <c r="AM8" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BK8" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>-1</v>
       </c>
@@ -1445,13 +1997,82 @@
         <v>0</v>
       </c>
       <c r="AM9" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BK9" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>-1</v>
       </c>
@@ -1567,13 +2188,82 @@
         <v>0</v>
       </c>
       <c r="AM10" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BK10" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>-1</v>
       </c>
@@ -1689,13 +2379,82 @@
         <v>0</v>
       </c>
       <c r="AM11" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BK11" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>-1</v>
       </c>
@@ -1811,13 +2570,82 @@
         <v>0</v>
       </c>
       <c r="AM12" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BK12" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>-1</v>
       </c>
@@ -1933,13 +2761,82 @@
         <v>0</v>
       </c>
       <c r="AM13" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BK13" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>-1</v>
       </c>
@@ -2055,13 +2952,82 @@
         <v>0</v>
       </c>
       <c r="AM14" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BK14" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>-1</v>
       </c>
@@ -2177,13 +3143,82 @@
         <v>0</v>
       </c>
       <c r="AM15" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BK15" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:63" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>-1</v>
       </c>
@@ -2224,10 +3259,10 @@
         <v>-1</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O16" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P16" s="1">
         <v>-1</v>
@@ -2260,10 +3295,10 @@
         <v>-1</v>
       </c>
       <c r="Z16" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA16" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB16" s="1">
         <v>-1</v>
@@ -2304,8 +3339,77 @@
       <c r="AN16" s="1">
         <v>-1</v>
       </c>
+      <c r="AO16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AW16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AX16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AY16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AZ16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BA16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BC16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BD16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BE16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BF16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BG16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BH16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BI16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BJ16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BK16" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="17" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>-1</v>
       </c>
@@ -2346,10 +3450,10 @@
         <v>-1</v>
       </c>
       <c r="N17" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O17" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P17" s="1">
         <v>-1</v>
@@ -2382,10 +3486,10 @@
         <v>-1</v>
       </c>
       <c r="Z17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB17" s="1">
         <v>-1</v>
@@ -2426,22 +3530,91 @@
       <c r="AN17" s="1">
         <v>-1</v>
       </c>
+      <c r="AO17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AX17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AY17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BA17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BC17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BD17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BE17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BF17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BG17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BH17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BI17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BJ17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BK17" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="18" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:40" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:63" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="33" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="34" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="35" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2472,8 +3645,32 @@
     <row r="60" ht="25.05" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="BJ1:BK20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:AN20">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO1:BI20">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
